--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H2">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>1.859739346083667</v>
+        <v>6.944264159711557</v>
       </c>
       <c r="R2">
-        <v>16.737654114753</v>
+        <v>62.49837743740401</v>
       </c>
       <c r="S2">
-        <v>0.2667119021847988</v>
+        <v>0.06595903629612627</v>
       </c>
       <c r="T2">
-        <v>0.2667119021847988</v>
+        <v>0.06599396940872061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -596,108 +599,108 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H3">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I3">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J3">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N3">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O3">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P3">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q3">
-        <v>0.6993737854436669</v>
+        <v>37.44169826978157</v>
       </c>
       <c r="R3">
-        <v>6.294364068993001</v>
+        <v>336.9752844280341</v>
       </c>
       <c r="S3">
-        <v>0.1002997076158392</v>
+        <v>0.3556342728856833</v>
       </c>
       <c r="T3">
-        <v>0.1002997076158392</v>
+        <v>0.3558226233042878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2401406666666667</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H4">
-        <v>0.720422</v>
+        <v>128.110874</v>
       </c>
       <c r="I4">
-        <v>0.0029895496726624</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J4">
-        <v>0.0029895496726624</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N4">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O4">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P4">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q4">
-        <v>0.01514879367533333</v>
+        <v>9.309817213580002</v>
       </c>
       <c r="R4">
-        <v>0.136339143078</v>
+        <v>83.78835492222001</v>
       </c>
       <c r="S4">
-        <v>0.00217254293482665</v>
+        <v>0.08842788197249841</v>
       </c>
       <c r="T4">
-        <v>0.00217254293482665</v>
+        <v>0.08847471499691612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H5">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I5">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J5">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N5">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O5">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P5">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q5">
-        <v>0.005696857035333335</v>
+        <v>0.021621822566</v>
       </c>
       <c r="R5">
-        <v>0.051271713318</v>
+        <v>0.129730935396</v>
       </c>
       <c r="S5">
-        <v>0.00081700673783575</v>
+        <v>0.0002053715910885559</v>
       </c>
       <c r="T5">
-        <v>0.0008170067378357499</v>
+        <v>0.0001369869064275015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>50.60572933333333</v>
+        <v>0.132963</v>
       </c>
       <c r="H6">
-        <v>151.817188</v>
+        <v>0.265926</v>
       </c>
       <c r="I6">
-        <v>0.6299988405266995</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J6">
-        <v>0.6299988405266996</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N6">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O6">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P6">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q6">
-        <v>3.192361223534666</v>
+        <v>0.116579343461</v>
       </c>
       <c r="R6">
-        <v>28.731251011812</v>
+        <v>0.699476060766</v>
       </c>
       <c r="S6">
-        <v>0.4578279941126856</v>
+        <v>0.001107311152034583</v>
       </c>
       <c r="T6">
-        <v>0.4578279941126856</v>
+        <v>0.0007385984028554518</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.132963</v>
+      </c>
+      <c r="H7">
+        <v>0.265926</v>
+      </c>
+      <c r="I7">
+        <v>0.001588013855235666</v>
+      </c>
+      <c r="J7">
+        <v>0.001059236597621443</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.21801</v>
+      </c>
+      <c r="N7">
+        <v>0.65403</v>
+      </c>
+      <c r="O7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q7">
+        <v>0.02898726363</v>
+      </c>
+      <c r="R7">
+        <v>0.17392358178</v>
+      </c>
+      <c r="S7">
+        <v>0.0002753311121125277</v>
+      </c>
+      <c r="T7">
+        <v>0.0001836512883384896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H8">
+        <v>26.777106</v>
+      </c>
+      <c r="I8">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J8">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.487846</v>
+      </c>
+      <c r="O8">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P8">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q8">
+        <v>1.451456005964</v>
+      </c>
+      <c r="R8">
+        <v>13.063104053676</v>
+      </c>
+      <c r="S8">
+        <v>0.01378643398029757</v>
+      </c>
+      <c r="T8">
+        <v>0.01379373552800888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H9">
+        <v>26.777106</v>
+      </c>
+      <c r="I9">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J9">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.630341</v>
+      </c>
+      <c r="O9">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P9">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q9">
+        <v>7.825879974794</v>
+      </c>
+      <c r="R9">
+        <v>70.432919773146</v>
+      </c>
+      <c r="S9">
+        <v>0.07433292994545385</v>
+      </c>
+      <c r="T9">
+        <v>0.07437229802535718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H10">
+        <v>26.777106</v>
+      </c>
+      <c r="I10">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J10">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.21801</v>
+      </c>
+      <c r="N10">
+        <v>0.65403</v>
+      </c>
+      <c r="O10">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P10">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q10">
+        <v>1.94589229302</v>
+      </c>
+      <c r="R10">
+        <v>17.51303063718</v>
+      </c>
+      <c r="S10">
+        <v>0.01848276180625447</v>
+      </c>
+      <c r="T10">
+        <v>0.01849255061511962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H11">
+        <v>95.900486</v>
+      </c>
+      <c r="I11">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J11">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.487846</v>
+      </c>
+      <c r="O11">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P11">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q11">
+        <v>5.198296499239556</v>
+      </c>
+      <c r="R11">
+        <v>46.784668493156</v>
+      </c>
+      <c r="S11">
+        <v>0.04937522818625176</v>
+      </c>
+      <c r="T11">
+        <v>0.04940137821060715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>50.60572933333333</v>
-      </c>
-      <c r="H7">
-        <v>151.817188</v>
-      </c>
-      <c r="I7">
-        <v>0.6299988405266995</v>
-      </c>
-      <c r="J7">
-        <v>0.6299988405266996</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.023723</v>
-      </c>
-      <c r="N7">
-        <v>0.07116900000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.2732875607676889</v>
-      </c>
-      <c r="P7">
-        <v>0.2732875607676888</v>
-      </c>
-      <c r="Q7">
-        <v>1.200519716974667</v>
-      </c>
-      <c r="R7">
-        <v>10.804677452772</v>
-      </c>
-      <c r="S7">
-        <v>0.172170846414014</v>
-      </c>
-      <c r="T7">
-        <v>0.172170846414014</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H12">
+        <v>95.900486</v>
+      </c>
+      <c r="I12">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J12">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.630341</v>
+      </c>
+      <c r="O12">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P12">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q12">
+        <v>28.02788669396956</v>
+      </c>
+      <c r="R12">
+        <v>252.250980245726</v>
+      </c>
+      <c r="S12">
+        <v>0.2662186162900867</v>
+      </c>
+      <c r="T12">
+        <v>0.266359610540758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H13">
+        <v>95.900486</v>
+      </c>
+      <c r="I13">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J13">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.21801</v>
+      </c>
+      <c r="N13">
+        <v>0.65403</v>
+      </c>
+      <c r="O13">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P13">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q13">
+        <v>6.969088317620001</v>
+      </c>
+      <c r="R13">
+        <v>62.72179485858</v>
+      </c>
+      <c r="S13">
+        <v>0.06619482478211206</v>
+      </c>
+      <c r="T13">
+        <v>0.06622988277260322</v>
       </c>
     </row>
   </sheetData>
